--- a/medicine/Sexualité et sexologie/Le_Droit_de_cuissage___France,_1860-1930/Le_Droit_de_cuissage___France,_1860-1930.xlsx
+++ b/medicine/Sexualité et sexologie/Le_Droit_de_cuissage___France,_1860-1930/Le_Droit_de_cuissage___France,_1860-1930.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Droit de cuissage : France, 1860-1930 est un essai historique de la sociologue Marie-Victoire Louis paru en 1994 en France.
@@ -512,7 +524,9 @@
           <t>Argument</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une étude historique et sociologique sur les violences sexuelles faites aux femmes au travail en France, des débuts de la première révolution industrielle à la grève victorieuse « pour la dignité des femmes », en 1905 à Limoges.
 </t>
@@ -543,7 +557,9 @@
           <t>Plan</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hommages et remerciements - Préface de Michelle Perrot, [lire en ligne].
 Chapitre I : L'environnement politique, juridique, économique : travaux des femmes , pouvoirs des hommes, [lire en ligne].
